--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/10/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.047800000000002</v>
+        <v>5.314800000000003</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.433299999999997</v>
+        <v>6.006899999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.795300000000008</v>
+        <v>8.641900000000003</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
